--- a/src/practice/Notes.xlsx
+++ b/src/practice/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I353174/X01/problem-solving/src/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B58EB67-BDDA-3742-8032-442DBE937356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B739E865-C4CA-2F44-85C8-474E97AE9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{78DCED3F-067B-3E4F-991A-F0C0F9E9847D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" xr2:uid="{78DCED3F-067B-3E4F-991A-F0C0F9E9847D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Problem</t>
   </si>
@@ -50,17 +50,222 @@
     <t>Solution</t>
   </si>
   <si>
-    <t>d2fdew</t>
-  </si>
-  <si>
-    <t>wecwcwc</t>
+    <t>Count Consecutive Binary Strings</t>
+  </si>
+  <si>
+    <t>Shortest Distance to a Character</t>
+  </si>
+  <si>
+    <t>Count consecutive characters in string</t>
+  </si>
+  <si>
+    <t>String, Array</t>
+  </si>
+  <si>
+    <t>Next Greater Element I</t>
+  </si>
+  <si>
+    <t>Stack to store next or previous  greater or smaller value</t>
+  </si>
+  <si>
+    <t>Stack, Monotonic</t>
+  </si>
+  <si>
+    <t>Can Place Flowers</t>
+  </si>
+  <si>
+    <t>Greedy, Array</t>
+  </si>
+  <si>
+    <t>Longest Continuous Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Array, Longest Increasing Contiguous Subsequence, DP, Two Pointers</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <r>
+      <t>Find the F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loor</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ceil</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value of current value, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreeSet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be used to find and Floor and Ceil. If array is sorted </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Binary Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can be used to find </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ceil</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comparing two elements in array, while handling two edge case, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first and last element, in single if condition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compare adjacent elements, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">if duplicates increment counter, handle counter value else reset counter </t>
+    </r>
+  </si>
+  <si>
+    <t>Use two pointer to create a boundary of unique elements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +298,45 @@
       <color theme="7"/>
       <name val="Aptos Display"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,10 +362,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -130,11 +375,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,18 +736,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F300E807-CDCA-3844-B5E3-F80E178A86D9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" style="1" customWidth="1"/>
@@ -491,25 +760,138 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="B3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="2:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B255D9D1-C9E4-B74F-B4FC-9995E7B21D1A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{4162065A-5766-0748-A494-14233A949DCC}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{F7AA1EC9-2317-B242-9625-4A3233E5EC1F}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{CA197CDD-378C-324A-8CE3-22B9505C8052}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{C5659616-CFD4-AE47-BEAA-61925F4E65D5}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{2065F1F4-AE56-A04C-BE1B-857A34196539}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/practice/Notes.xlsx
+++ b/src/practice/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I353174/X01/problem-solving/src/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B739E865-C4CA-2F44-85C8-474E97AE9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DA9B25-9082-2741-A3D7-1172FFB5C517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" xr2:uid="{78DCED3F-067B-3E4F-991A-F0C0F9E9847D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" xr2:uid="{78DCED3F-067B-3E4F-991A-F0C0F9E9847D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Problem</t>
   </si>
@@ -89,12 +89,23 @@
     <t>Array</t>
   </si>
   <si>
+    <t>Use two pointer to create a boundary of unique elements</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <t>Stack, Array</t>
+  </si>
+  <si>
+    <t>Stack to keep track of previous elements, delete char from string builder if its equal to k</t>
+  </si>
+  <si>
     <r>
       <t>Find the F</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="14"/>
         <color theme="1"/>
@@ -116,7 +127,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="14"/>
         <color theme="1"/>
@@ -138,7 +148,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="14"/>
         <color theme="1"/>
@@ -160,7 +169,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="14"/>
         <color theme="1"/>
@@ -182,7 +190,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="14"/>
         <color theme="1"/>
@@ -204,7 +211,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="14"/>
         <color theme="1"/>
@@ -231,7 +237,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="14"/>
         <color theme="1"/>
@@ -247,7 +252,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="14"/>
         <color theme="1"/>
@@ -258,7 +262,40 @@
     </r>
   </si>
   <si>
-    <t>Use two pointer to create a boundary of unique elements</t>
+    <t>Available Captures for Rook</t>
+  </si>
+  <si>
+    <t>Matrix traversal in one direction until solution is found</t>
+  </si>
+  <si>
+    <t>Matrix, Array, Simulation</t>
+  </si>
+  <si>
+    <t>Find The Town Judge</t>
+  </si>
+  <si>
+    <t>Graph in degree and out degree validations</t>
+  </si>
+  <si>
+    <t>Graph, Array</t>
+  </si>
+  <si>
+    <t>Relative Sort Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counting sort to sort the elements </t>
+  </si>
+  <si>
+    <t>Counting Sort, Arrays</t>
+  </si>
+  <si>
+    <t>Find Common Characters</t>
+  </si>
+  <si>
+    <t>Intersection of characters including duplicates from a list of words</t>
+  </si>
+  <si>
+    <t>String, Intersection, Characters</t>
   </si>
 </sst>
 </file>
@@ -331,7 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="14"/>
       <color theme="1"/>
@@ -376,29 +412,29 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -736,17 +772,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F300E807-CDCA-3844-B5E3-F80E178A86D9}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="96.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" style="1" customWidth="1"/>
@@ -770,97 +806,137 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -882,6 +958,12 @@
     </row>
     <row r="22" spans="2:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="2:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -891,6 +973,11 @@
     <hyperlink ref="A5" r:id="rId4" xr:uid="{CA197CDD-378C-324A-8CE3-22B9505C8052}"/>
     <hyperlink ref="A6" r:id="rId5" xr:uid="{C5659616-CFD4-AE47-BEAA-61925F4E65D5}"/>
     <hyperlink ref="A7" r:id="rId6" xr:uid="{2065F1F4-AE56-A04C-BE1B-857A34196539}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{5C10E9AC-B6DF-0F44-A3B9-7D93849DDB8C}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{FEC4DF8B-74FC-3F48-BF48-3BD43ECFB55C}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{42C16418-E2C9-2643-AC18-029AFAEFB6B2}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{D99BB891-DCFB-1D43-8EE2-089A4A0B9129}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{8DE9C711-5DAE-4742-A757-D40C906FEC27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
